--- a/Carteira_usa_dia.xlsx
+++ b/Carteira_usa_dia.xlsx
@@ -498,37 +498,37 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44865</v>
+        <v>44874</v>
       </c>
       <c r="B2" t="n">
-        <v>1651.73235536499</v>
+        <v>1388.912736158752</v>
       </c>
       <c r="C2" t="n">
-        <v>2074.37805</v>
+        <v>2031.939645</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.430937576294</v>
+        <v>1535.958794631958</v>
       </c>
       <c r="E2" t="n">
-        <v>1244.459503327942</v>
+        <v>1238.3442</v>
       </c>
       <c r="F2" t="n">
-        <v>1736.332436523438</v>
+        <v>1679.334758911133</v>
       </c>
       <c r="G2" t="n">
-        <v>2663.755300561524</v>
+        <v>2324.078125421143</v>
       </c>
       <c r="H2" t="n">
-        <v>1929.24199276886</v>
+        <v>1955.171474794006</v>
       </c>
       <c r="I2" t="n">
-        <v>2079.2682640625</v>
+        <v>2200.292798046875</v>
       </c>
       <c r="J2" t="n">
-        <v>1371.797754867554</v>
+        <v>1410.272803894043</v>
       </c>
       <c r="K2" t="n">
-        <v>16413.3965950531</v>
+        <v>15764.30533685791</v>
       </c>
     </row>
   </sheetData>

--- a/Carteira_usa_dia.xlsx
+++ b/Carteira_usa_dia.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Ativos</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -472,63 +466,139 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>WPC</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WPC</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>44874</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Qtde</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>1388.912736158752</v>
+        <v>16.1239</v>
       </c>
       <c r="C2" t="n">
-        <v>2031.939645</v>
+        <v>0.004661</v>
       </c>
       <c r="D2" t="n">
-        <v>1535.958794631958</v>
+        <v>17.59</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.3442</v>
+        <v>61.1528</v>
       </c>
       <c r="F2" t="n">
-        <v>1679.334758911133</v>
+        <v>7.48</v>
       </c>
       <c r="G2" t="n">
-        <v>2324.078125421143</v>
+        <v>14.3257</v>
       </c>
       <c r="H2" t="n">
-        <v>1955.171474794006</v>
+        <v>24.0128</v>
       </c>
       <c r="I2" t="n">
-        <v>2200.292798046875</v>
+        <v>17.979</v>
       </c>
       <c r="J2" t="n">
-        <v>1410.272803894043</v>
+        <v>16.96627538</v>
       </c>
       <c r="K2" t="n">
-        <v>15764.30533685791</v>
+        <v>175.63513638</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ValorDol</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1373.59508036499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2131.9414</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1565.861740951538</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1137.442103327942</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1808.664022827149</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2155.444918180847</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2353.2544</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1412.969544158935</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2430.418948185</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16369.5921579964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ValorReal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7246.812924989615</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11247.69643812</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8261.173372912124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6000.917048737556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9542.149651631471</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11371.69629933852</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12415.29956352</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7454.544721073712</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12822.40428683442</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86362.69430715744</v>
       </c>
     </row>
   </sheetData>

--- a/Carteira_usa_dia.xlsx
+++ b/Carteira_usa_dia.xlsx
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1373.59508036499</v>
+        <v>1319.257493079376</v>
       </c>
       <c r="C3" t="n">
-        <v>2131.9414</v>
+        <v>2143.1278</v>
       </c>
       <c r="D3" t="n">
-        <v>1565.861740951538</v>
+        <v>1513.091740951538</v>
       </c>
       <c r="E3" t="n">
-        <v>1137.442103327942</v>
+        <v>1103.19656798706</v>
       </c>
       <c r="F3" t="n">
-        <v>1808.664022827149</v>
+        <v>1754.284390869141</v>
       </c>
       <c r="G3" t="n">
-        <v>2155.444918180847</v>
+        <v>2176.933468180847</v>
       </c>
       <c r="H3" t="n">
-        <v>2353.2544</v>
+        <v>2367.662043359375</v>
       </c>
       <c r="I3" t="n">
-        <v>1412.969544158935</v>
+        <v>1393.642174026489</v>
       </c>
       <c r="J3" t="n">
-        <v>2430.418948185</v>
+        <v>2473.683002180963</v>
       </c>
       <c r="K3" t="n">
-        <v>16369.5921579964</v>
+        <v>16244.87868063479</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7246.812924989615</v>
+        <v>7179.135425839349</v>
       </c>
       <c r="C4" t="n">
-        <v>11247.69643812</v>
+        <v>11662.47286204</v>
       </c>
       <c r="D4" t="n">
-        <v>8261.173372912124</v>
+        <v>8233.94263591008</v>
       </c>
       <c r="E4" t="n">
-        <v>6000.917048737556</v>
+        <v>6003.375083671986</v>
       </c>
       <c r="F4" t="n">
-        <v>9542.149651631471</v>
+        <v>9546.464798231689</v>
       </c>
       <c r="G4" t="n">
-        <v>11371.69629933852</v>
+        <v>11846.43654714653</v>
       </c>
       <c r="H4" t="n">
-        <v>12415.29956352</v>
+        <v>12884.34330755304</v>
       </c>
       <c r="I4" t="n">
-        <v>7454.544721073712</v>
+        <v>7583.921982617348</v>
       </c>
       <c r="J4" t="n">
-        <v>12822.40428683442</v>
+        <v>13461.28816126837</v>
       </c>
       <c r="K4" t="n">
-        <v>86362.69430715744</v>
+        <v>88401.38080427841</v>
       </c>
     </row>
   </sheetData>
